--- a/script_for_suprim_court_data/court_cases_with_only_pdf_links.xlsx
+++ b/script_for_suprim_court_data/court_cases_with_only_pdf_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,52 +436,52 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>१</t>
+          <t>क्र.सं.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>०६९-WH-००७२</t>
+          <t>दर्ता नं.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>११८५११</t>
+          <t>मुद्दा नं.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>२०७०-०१-०२</t>
+          <t>दर्ता मिति</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>रिट निवेदन</t>
+          <t>मुद्दाको किसिम</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>बन्दीप्रत्यक्षीकरण</t>
+          <t>मुद्दाको नाम</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>सिद्धिका के।सी।का हकमा सुनिता विष्ट</t>
+          <t>वादी</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>समिर के।सी। समेत २</t>
+          <t>प्रतिबादी</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>२०७०-०१-२३</t>
+          <t>फैसला मिति</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118511.pdf</t>
+          <t>पूर्ण पाठ</t>
         </is>
       </c>
     </row>
@@ -1158,6 +1158,526 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118544.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>०६९-RC-००८३</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>११८५७१</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>धनबहादुर शाही</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०५</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118571.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>०६९-WO-११०१</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>११८५३४</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>रामरतन थारु</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत नेपालगंज समेत ५</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>२०७१-१०-०८</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118534.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>०६९-WO-१०९९</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>११८५३२</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>भिखारी राउत कुर्मी</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत हेटौडा समेत ४</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>२०७३-०४-२७</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118532.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>०६९-WO-११०२</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>११८५३६</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>प्रदिप घिमिरे</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>काठमाण्डौ विश्व वद्यालिय धुलिखेल समेत ६</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>२०७३-०३-१४</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118536.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>२६</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>०६९-WO-११००</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>११८५३३</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>रमेश प्रधान समेत ४५</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>सम्माननीय अध्यक्ष प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत १२</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>२०७४-१०-१५</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118533.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>२७</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८००</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>११८५३९</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>भुना पोखरेल</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>२०७५-०५-२८</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118539.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>२८</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>०६९-WO-१०९६</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>११८५२३</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>महेन्द्र प्रसाद यादव</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>कृषि बिकास बैंक लि।मुख्य कार्यालय रामशाहपथ काठमाडौं समेत ४</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>२०७५-०७-१८</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118523.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>२९</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>०६९-WO-१०९८</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>११८५३१</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>गुणादेवी लामीछाने</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>शिक्षा मन्त्रालय सिंहदरवार समेत ७</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>२०७७-०८-२५</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118531.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>३०</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>०६९-CI-०९९२</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>११८५५३</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>नामसारी</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>रामदेव साह तेली</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>तपसी साह तेली</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>२०७९-०६-२४</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118553.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>३१</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>०६९-CI-०९९३</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>११८५५७</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>२०७०-०१-०३</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>मानो देवी साह</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>तपसी साह तेली</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>२०७९-०६-२४</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_118557.pdf</t>
         </is>
       </c>
     </row>
